--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>404510.2709382162</v>
+        <v>401489.0934741336</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
     </row>
     <row r="3">
@@ -741,64 +741,64 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>44.4651922790234</v>
+        <v>44.46519227902341</v>
       </c>
       <c r="W3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>50.48273419507654</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>8.386866521745233</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>50.48273419507654</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>41.4216011981056</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>47.38379687733241</v>
+      </c>
+      <c r="G5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="F5" t="n">
-        <v>32.22184835001295</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.16194852731947</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>47.38379687733241</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>47.38379687733242</v>
       </c>
     </row>
     <row r="7">
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>52.60630734092059</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>52.60630734092059</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>26.66571920615313</v>
+        <v>227.9910045283412</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>47.40658936508569</v>
       </c>
       <c r="F8" t="n">
-        <v>227.9910045283415</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.19347636877792</v>
+        <v>227.9910045283412</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>129.1585992254725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>17.37324245629335</v>
       </c>
       <c r="S8" t="n">
-        <v>160.9552812136321</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>227.9910045283415</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>227.9910045283415</v>
+        <v>227.9910045283412</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>43.60832589373089</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>101.3359865028714</v>
       </c>
       <c r="I9" t="n">
-        <v>50.54070950493156</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>30.08847735101001</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>150.7207716933464</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.6158632737492</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>131.5870325715944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>112.0412427326804</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.46694521690493</v>
+        <v>26.46694521690503</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.935558018087377</v>
+        <v>6.935558018087491</v>
       </c>
       <c r="R10" t="n">
-        <v>134.751409402854</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>227.9910045283415</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>121.4424468370926</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>227.1061228084964</v>
+        <v>29.20581935452242</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1585,16 +1585,16 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>211.2067296939614</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.1293929718878</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>57.24347904696355</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>174.1182300831012</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>1.207068174442234</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.0096827405963</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>34.45703212904604</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>247.2924896597627</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060374</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>277.0527067260857</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>126.4418041083144</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>31.26260713376561</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>27.77749086859546</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.33703994142931</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018854</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,10 +3718,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>113.6427030833205</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>260.5104015783745</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189187</v>
       </c>
       <c r="H43" t="n">
-        <v>1.799772605716281</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,10 +4189,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673015</v>
       </c>
       <c r="V46" t="n">
-        <v>126.6321535627873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4334,16 +4334,16 @@
         <v>54.01652558873189</v>
       </c>
       <c r="L2" t="n">
-        <v>103.9944324418577</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="M2" t="n">
-        <v>103.9944324418577</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="N2" t="n">
-        <v>153.9723392949834</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O2" t="n">
-        <v>201.9309367803062</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="P2" t="n">
         <v>201.9309367803062</v>
@@ -4373,7 +4373,7 @@
         <v>161.1550860467999</v>
       </c>
       <c r="Y2" t="n">
-        <v>161.1550860467999</v>
+        <v>110.1624252436922</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>55.03127953871374</v>
       </c>
       <c r="D3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F3" t="n">
         <v>4.038618735606123</v>
@@ -4410,22 +4410,22 @@
         <v>4.038618735606123</v>
       </c>
       <c r="K3" t="n">
+        <v>4.038618735606123</v>
+      </c>
+      <c r="L3" t="n">
         <v>54.01652558873189</v>
-      </c>
-      <c r="L3" t="n">
-        <v>103.9944324418577</v>
       </c>
       <c r="M3" t="n">
         <v>103.9944324418577</v>
       </c>
       <c r="N3" t="n">
-        <v>103.9944324418577</v>
+        <v>153.9723392949834</v>
       </c>
       <c r="O3" t="n">
-        <v>103.9944324418577</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="P3" t="n">
-        <v>151.9530299271804</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
@@ -4437,13 +4437,13 @@
         <v>201.9309367803062</v>
       </c>
       <c r="T3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="U3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="V3" t="n">
-        <v>157.016601144929</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="W3" t="n">
         <v>106.0239403418214</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.038618735606123</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="C4" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="D4" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="E4" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="F4" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="G4" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="H4" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="I4" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="J4" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="K4" t="n">
         <v>4.038618735606123</v>
@@ -4510,28 +4510,28 @@
         <v>165.4881834901262</v>
       </c>
       <c r="R4" t="n">
+        <v>165.4881834901262</v>
+      </c>
+      <c r="S4" t="n">
+        <v>165.4881834901262</v>
+      </c>
+      <c r="T4" t="n">
+        <v>165.4881834901262</v>
+      </c>
+      <c r="U4" t="n">
+        <v>165.4881834901262</v>
+      </c>
+      <c r="V4" t="n">
         <v>114.4955226870186</v>
       </c>
-      <c r="S4" t="n">
+      <c r="W4" t="n">
         <v>114.4955226870186</v>
       </c>
-      <c r="T4" t="n">
-        <v>106.0239403418214</v>
-      </c>
-      <c r="U4" t="n">
-        <v>55.03127953871374</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.038618735606123</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.038618735606123</v>
-      </c>
       <c r="X4" t="n">
-        <v>4.038618735606123</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.038618735606123</v>
+        <v>72.65552147681089</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="C5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="D5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="E5" t="n">
-        <v>52.16612652666438</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="F5" t="n">
-        <v>19.61880496099473</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="G5" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="H5" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4571,19 +4571,19 @@
         <v>57.56206023926622</v>
       </c>
       <c r="L5" t="n">
-        <v>110.8204150400826</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="M5" t="n">
-        <v>161.9269171216741</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="N5" t="n">
-        <v>215.1852719224906</v>
+        <v>103.5077640033671</v>
       </c>
       <c r="O5" t="n">
-        <v>215.1852719224906</v>
+        <v>156.7661188041835</v>
       </c>
       <c r="P5" t="n">
-        <v>215.1852719224906</v>
+        <v>210.024473605</v>
       </c>
       <c r="Q5" t="n">
         <v>215.1852719224906</v>
@@ -4598,19 +4598,19 @@
         <v>160.8455567905485</v>
       </c>
       <c r="U5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="V5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="W5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="X5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="Y5" t="n">
-        <v>106.5058416586064</v>
+        <v>160.8455567905485</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.9831357023339</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="C6" t="n">
-        <v>112.9831357023339</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="D6" t="n">
         <v>58.64342057039187</v>
@@ -4632,13 +4632,13 @@
         <v>58.64342057039187</v>
       </c>
       <c r="F6" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="G6" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="H6" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="I6" t="n">
         <v>4.303705438449811</v>
@@ -4650,19 +4650,19 @@
         <v>57.56206023926622</v>
       </c>
       <c r="L6" t="n">
-        <v>110.8204150400826</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="M6" t="n">
         <v>110.8204150400826</v>
       </c>
       <c r="N6" t="n">
-        <v>110.8204150400826</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="O6" t="n">
         <v>161.9269171216741</v>
       </c>
       <c r="P6" t="n">
-        <v>215.1852719224906</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
@@ -4686,10 +4686,10 @@
         <v>160.8455567905485</v>
       </c>
       <c r="X6" t="n">
-        <v>112.9831357023339</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="Y6" t="n">
-        <v>112.9831357023339</v>
+        <v>58.64342057039187</v>
       </c>
     </row>
     <row r="7">
@@ -4744,22 +4744,22 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.2039013453972</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="S7" t="n">
-        <v>181.2039013453972</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2039013453972</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="U7" t="n">
-        <v>181.2039013453972</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="V7" t="n">
-        <v>128.0662171626491</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="W7" t="n">
         <v>73.72650203070704</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>288.7950380423406</v>
+        <v>664.1213443915117</v>
       </c>
       <c r="C8" t="n">
-        <v>261.8599681371354</v>
+        <v>433.8274004234903</v>
       </c>
       <c r="D8" t="n">
-        <v>261.8599681371354</v>
+        <v>433.8274004234903</v>
       </c>
       <c r="E8" t="n">
-        <v>261.8599681371354</v>
+        <v>385.9419566203734</v>
       </c>
       <c r="F8" t="n">
-        <v>31.5660241691137</v>
+        <v>378.99645587117</v>
       </c>
       <c r="G8" t="n">
-        <v>18.23928036226732</v>
+        <v>148.7025119031486</v>
       </c>
       <c r="H8" t="n">
-        <v>18.23928036226732</v>
+        <v>148.7025119031486</v>
       </c>
       <c r="I8" t="n">
-        <v>18.23928036226732</v>
+        <v>18.23928036226729</v>
       </c>
       <c r="J8" t="n">
-        <v>73.00647132128606</v>
+        <v>115.8756746078783</v>
       </c>
       <c r="K8" t="n">
-        <v>120.7403870572227</v>
+        <v>163.6095903438145</v>
       </c>
       <c r="L8" t="n">
-        <v>216.8602923071518</v>
+        <v>259.7294955937431</v>
       </c>
       <c r="M8" t="n">
-        <v>355.4816446647816</v>
+        <v>485.4405900768008</v>
       </c>
       <c r="N8" t="n">
-        <v>500.9598438065527</v>
+        <v>711.1516845598586</v>
       </c>
       <c r="O8" t="n">
-        <v>624.9955207326311</v>
+        <v>835.1873614859364</v>
       </c>
       <c r="P8" t="n">
-        <v>696.3561004632777</v>
+        <v>906.5479412165826</v>
       </c>
       <c r="Q8" t="n">
-        <v>911.9640181133659</v>
+        <v>911.9640181133648</v>
       </c>
       <c r="R8" t="n">
-        <v>911.9640181133659</v>
+        <v>894.4152883595331</v>
       </c>
       <c r="S8" t="n">
-        <v>749.382925978384</v>
+        <v>894.4152883595331</v>
       </c>
       <c r="T8" t="n">
-        <v>749.382925978384</v>
+        <v>894.4152883595331</v>
       </c>
       <c r="U8" t="n">
-        <v>519.0889820103623</v>
+        <v>894.4152883595331</v>
       </c>
       <c r="V8" t="n">
-        <v>288.7950380423406</v>
+        <v>664.1213443915117</v>
       </c>
       <c r="W8" t="n">
-        <v>288.7950380423406</v>
+        <v>664.1213443915117</v>
       </c>
       <c r="X8" t="n">
-        <v>288.7950380423406</v>
+        <v>664.1213443915117</v>
       </c>
       <c r="Y8" t="n">
-        <v>288.7950380423406</v>
+        <v>664.1213443915117</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>402.9809863710029</v>
+        <v>323.8851317279272</v>
       </c>
       <c r="C9" t="n">
-        <v>228.5279570898759</v>
+        <v>323.8851317279272</v>
       </c>
       <c r="D9" t="n">
-        <v>228.5279570898759</v>
+        <v>323.8851317279272</v>
       </c>
       <c r="E9" t="n">
-        <v>69.29050208442041</v>
+        <v>164.6476767224717</v>
       </c>
       <c r="F9" t="n">
-        <v>69.29050208442041</v>
+        <v>120.5988626884</v>
       </c>
       <c r="G9" t="n">
-        <v>69.29050208442041</v>
+        <v>120.5988626884</v>
       </c>
       <c r="H9" t="n">
-        <v>69.29050208442041</v>
+        <v>18.23928036226729</v>
       </c>
       <c r="I9" t="n">
-        <v>18.23928036226732</v>
+        <v>18.23928036226729</v>
       </c>
       <c r="J9" t="n">
-        <v>123.0575422560918</v>
+        <v>18.23928036226729</v>
       </c>
       <c r="K9" t="n">
-        <v>167.0089055121145</v>
+        <v>243.9503748453251</v>
       </c>
       <c r="L9" t="n">
-        <v>272.4294785001014</v>
+        <v>349.3709478333117</v>
       </c>
       <c r="M9" t="n">
-        <v>414.8071829821553</v>
+        <v>491.7486523153652</v>
       </c>
       <c r="N9" t="n">
-        <v>575.3618465595144</v>
+        <v>652.303315892724</v>
       </c>
       <c r="O9" t="n">
-        <v>700.0182016345366</v>
+        <v>776.9596709677458</v>
       </c>
       <c r="P9" t="n">
-        <v>907.9276094718654</v>
+        <v>907.9276094718645</v>
       </c>
       <c r="Q9" t="n">
-        <v>911.9640181133659</v>
+        <v>911.9640181133648</v>
       </c>
       <c r="R9" t="n">
-        <v>911.9640181133659</v>
+        <v>881.5716167487082</v>
       </c>
       <c r="S9" t="n">
-        <v>911.9640181133659</v>
+        <v>729.3284130180551</v>
       </c>
       <c r="T9" t="n">
-        <v>911.9640181133659</v>
+        <v>531.73663193346</v>
       </c>
       <c r="U9" t="n">
-        <v>911.9640181133659</v>
+        <v>531.73663193346</v>
       </c>
       <c r="V9" t="n">
-        <v>911.9640181133659</v>
+        <v>531.73663193346</v>
       </c>
       <c r="W9" t="n">
-        <v>911.9640181133659</v>
+        <v>531.73663193346</v>
       </c>
       <c r="X9" t="n">
-        <v>704.1125179078331</v>
+        <v>323.8851317279272</v>
       </c>
       <c r="Y9" t="n">
-        <v>571.196323391071</v>
+        <v>323.8851317279272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>195.0902078724868</v>
+        <v>456.176273912133</v>
       </c>
       <c r="C10" t="n">
-        <v>195.0902078724868</v>
+        <v>456.176273912133</v>
       </c>
       <c r="D10" t="n">
-        <v>44.97356846015109</v>
+        <v>306.0596344997972</v>
       </c>
       <c r="E10" t="n">
-        <v>44.97356846015109</v>
+        <v>158.1465409174041</v>
       </c>
       <c r="F10" t="n">
-        <v>44.97356846015109</v>
+        <v>44.97356846015117</v>
       </c>
       <c r="G10" t="n">
-        <v>44.97356846015109</v>
+        <v>44.97356846015117</v>
       </c>
       <c r="H10" t="n">
-        <v>44.97356846015109</v>
+        <v>44.97356846015117</v>
       </c>
       <c r="I10" t="n">
-        <v>44.97356846015109</v>
+        <v>44.97356846015117</v>
       </c>
       <c r="J10" t="n">
-        <v>18.23928036226732</v>
+        <v>18.23928036226729</v>
       </c>
       <c r="K10" t="n">
-        <v>105.0177289733319</v>
+        <v>105.0177289733321</v>
       </c>
       <c r="L10" t="n">
-        <v>271.5907010242873</v>
+        <v>271.5907010242872</v>
       </c>
       <c r="M10" t="n">
-        <v>457.6076678924682</v>
+        <v>457.6076678924677</v>
       </c>
       <c r="N10" t="n">
-        <v>644.6361834787409</v>
+        <v>644.6361834787401</v>
       </c>
       <c r="O10" t="n">
-        <v>801.3709935506179</v>
+        <v>801.3709935506168</v>
       </c>
       <c r="P10" t="n">
-        <v>911.9640181133659</v>
+        <v>911.9640181133648</v>
       </c>
       <c r="Q10" t="n">
-        <v>904.9584039536817</v>
+        <v>904.9584039536804</v>
       </c>
       <c r="R10" t="n">
-        <v>768.8458692033241</v>
+        <v>904.9584039536804</v>
       </c>
       <c r="S10" t="n">
-        <v>768.8458692033241</v>
+        <v>904.9584039536804</v>
       </c>
       <c r="T10" t="n">
-        <v>768.8458692033241</v>
+        <v>904.9584039536804</v>
       </c>
       <c r="U10" t="n">
-        <v>768.8458692033241</v>
+        <v>904.9584039536804</v>
       </c>
       <c r="V10" t="n">
-        <v>768.8458692033241</v>
+        <v>904.9584039536804</v>
       </c>
       <c r="W10" t="n">
-        <v>538.5519252353024</v>
+        <v>904.9584039536804</v>
       </c>
       <c r="X10" t="n">
-        <v>415.8827870160169</v>
+        <v>676.9688530556631</v>
       </c>
       <c r="Y10" t="n">
-        <v>195.0902078724868</v>
+        <v>456.176273912133</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2245.555927458775</v>
+        <v>2070.047158355615</v>
       </c>
       <c r="C11" t="n">
-        <v>1876.593410518364</v>
+        <v>1701.084641415203</v>
       </c>
       <c r="D11" t="n">
-        <v>1518.327711911613</v>
+        <v>1342.818942808453</v>
       </c>
       <c r="E11" t="n">
-        <v>1132.539459313369</v>
+        <v>957.0306902102084</v>
       </c>
       <c r="F11" t="n">
-        <v>721.5535545237615</v>
+        <v>546.0447854206014</v>
       </c>
       <c r="G11" t="n">
-        <v>306.937789964907</v>
+        <v>131.4290208617469</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592077</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
         <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345379</v>
+        <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926744</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048272</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704701</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434587</v>
+        <v>3220.252088656629</v>
       </c>
       <c r="X11" t="n">
-        <v>2635.695259434587</v>
+        <v>2846.786330395549</v>
       </c>
       <c r="Y11" t="n">
-        <v>2245.555927458775</v>
+        <v>2456.646998419737</v>
       </c>
     </row>
     <row r="12">
@@ -5106,16 +5106,16 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
         <v>193.8410919870413</v>
@@ -5124,16 +5124,16 @@
         <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626173</v>
+        <v>503.2284887929939</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019146</v>
+        <v>1011.185054749522</v>
       </c>
       <c r="N12" t="n">
-        <v>1903.225240695506</v>
+        <v>1546.994364450732</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.16628502803</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
         <v>2371.16628502803</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>541.2768899241312</v>
+        <v>522.4573464085599</v>
       </c>
       <c r="C13" t="n">
-        <v>372.3407069962243</v>
+        <v>522.4573464085599</v>
       </c>
       <c r="D13" t="n">
-        <v>372.3407069962243</v>
+        <v>372.3407069962242</v>
       </c>
       <c r="E13" t="n">
         <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648146</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344813</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
@@ -5215,34 +5215,34 @@
         <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458879</v>
+        <v>1949.247121276104</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.73628689332</v>
+        <v>1728.355788710545</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.644593842771</v>
+        <v>1439.264095659996</v>
       </c>
       <c r="V13" t="n">
-        <v>1358.644593842771</v>
+        <v>1184.579607454109</v>
       </c>
       <c r="W13" t="n">
-        <v>1069.22742380581</v>
+        <v>971.2394764501074</v>
       </c>
       <c r="X13" t="n">
-        <v>841.237872907793</v>
+        <v>743.2499255520901</v>
       </c>
       <c r="Y13" t="n">
-        <v>722.9253547543709</v>
+        <v>522.4573464085599</v>
       </c>
     </row>
     <row r="14">
@@ -5261,37 +5261,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192565</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>705.9324428257312</v>
+        <v>809.042235523331</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1336.363037697518</v>
+        <v>1257.824365564878</v>
       </c>
       <c r="X16" t="n">
-        <v>1108.373486799501</v>
+        <v>1029.834814666861</v>
       </c>
       <c r="Y16" t="n">
-        <v>887.5809076559705</v>
+        <v>809.042235523331</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5598,19 +5598,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>633.4413279836771</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>464.5051450557705</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
         <v>464.5051450557705</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2316.650272731173</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2097.048807754114</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1807.973581098312</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1553.289092892425</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1263.871922855464</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.882371957447</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>815.0897928139168</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5738,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5774,25 +5774,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>983.3556038098233</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>814.4194208819163</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1794.716390662386</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1613.78619868161</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122181</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>887.580907655971</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297711</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,16 +6382,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934012</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,16 +6540,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,13 +6622,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6698,7 +6698,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>430.7826650753332</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E34" t="n">
-        <v>430.7826650753332</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>430.7826650753332</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>263.5865657902132</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>121.8747346324117</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,7 +6968,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
         <v>435.7419440038341</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138409</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703107</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038341</v>
@@ -7339,43 +7339,43 @@
         <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1170.559545872684</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>942.5699949746665</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>721.7774158311364</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474272</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650344</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650344</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179093</v>
       </c>
     </row>
     <row r="44">
@@ -7631,34 +7631,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,10 +7679,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7728,22 +7728,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602303</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>974.101820392571</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>258.8041889468121</v>
       </c>
       <c r="L2" t="n">
-        <v>271.649412930509</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
         <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>263.3879167614743</v>
+        <v>261.34821032935</v>
       </c>
       <c r="O2" t="n">
-        <v>262.9533152362218</v>
+        <v>264.993021668346</v>
       </c>
       <c r="P2" t="n">
-        <v>217.9290633046618</v>
+        <v>268.4117974997384</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>180.3309306186853</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
         <v>178.2892129380686</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>180.0744745527947</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>168.9501955242219</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>179.2618479563565</v>
       </c>
       <c r="P3" t="n">
-        <v>172.9650138997595</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1458149818875</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,22 +8219,22 @@
         <v>255.9772818167572</v>
       </c>
       <c r="L5" t="n">
-        <v>267.3451747559029</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>257.2476482458454</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>258.0880505088102</v>
+        <v>250.7015343101077</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>264.7836813017771</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8298,22 +8298,22 @@
         <v>179.4738158616228</v>
       </c>
       <c r="L6" t="n">
-        <v>175.9947778369091</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>176.8437648107177</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>163.3726892003442</v>
       </c>
       <c r="O6" t="n">
-        <v>176.2963480628989</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>173.3862381384502</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>184.1624432744798</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>57.34539621415692</v>
+        <v>100.6476217561696</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8459,10 +8459,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>87.96943649033187</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>81.0433286275628</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>20.21400312442464</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>183.5956881081166</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>128.4795547823317</v>
+        <v>50.76089889020068</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>5.684341886080801e-13</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>62.87138053087838</v>
+        <v>260.7716839848524</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>75.31626864262955</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>101.455260380207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.782806954681</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>112.4047682534898</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>166.0397529241856</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>52.01660326104828</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.715789672031322e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>114.1584408891663</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>38.89198472948144</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>9.131767663158406</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.26526345294997</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>99.26785128072277</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>149.763678867879</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408532</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>53.48834544997008</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.494940240508</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,10 +25606,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>138.4949402405075</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>26.01259675821653</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>145.6085800303769</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405076</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="V46" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940760.6700649913</v>
+        <v>940760.6700649911</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1035821.298219893</v>
+        <v>1035821.298219894</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>347979.8910303381</v>
+        <v>347979.891030338</v>
       </c>
       <c r="F2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="G2" t="n">
         <v>383394.6348527529</v>
       </c>
-      <c r="G2" t="n">
-        <v>383394.634852753</v>
-      </c>
       <c r="H2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="I2" t="n">
         <v>383394.6348527528</v>
       </c>
-      <c r="I2" t="n">
-        <v>383394.6348527529</v>
-      </c>
       <c r="J2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="K2" t="n">
         <v>383394.6348527528</v>
       </c>
       <c r="L2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="M2" t="n">
         <v>383394.6348527528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>383394.6348527529</v>
       </c>
       <c r="N2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="O2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="P2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>473459.5903846388</v>
+        <v>473459.5903846381</v>
       </c>
       <c r="E3" t="n">
-        <v>765670.6839494549</v>
+        <v>765670.6839494556</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704288</v>
+        <v>189308.2687704287</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573661</v>
+        <v>13208.50450573655</v>
       </c>
       <c r="K3" t="n">
         <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>44087.10741304871</v>
+        <v>44087.10741304864</v>
       </c>
       <c r="M3" t="n">
         <v>184717.4359189082</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202352</v>
+        <v>49839.57413202358</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.305927126235993e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>268344.6465609528</v>
+        <v>268344.6465609531</v>
       </c>
       <c r="E4" t="n">
         <v>7401.949902073127</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719664</v>
+        <v>7507.368461719673</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719672</v>
+        <v>7507.368461719698</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.3684617197</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="L4" t="n">
         <v>7507.36846171968</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719727</v>
+        <v>7507.36846171971</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26473,10 +26473,10 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>58927.44895673133</v>
+        <v>58927.44895673129</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673857</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78508.66309721032</v>
+        <v>-78508.66309721037</v>
       </c>
       <c r="C6" t="n">
         <v>-48951.0527990882</v>
       </c>
       <c r="D6" t="n">
-        <v>-410736.8452167882</v>
+        <v>-410736.845216788</v>
       </c>
       <c r="E6" t="n">
-        <v>-510230.2278885757</v>
+        <v>-510451.3592025512</v>
       </c>
       <c r="F6" t="n">
-        <v>85456.46779669735</v>
+        <v>85421.72987126169</v>
       </c>
       <c r="G6" t="n">
-        <v>274764.7365671264</v>
+        <v>274729.9986416904</v>
       </c>
       <c r="H6" t="n">
-        <v>274764.736567126</v>
+        <v>274729.9986416904</v>
       </c>
       <c r="I6" t="n">
-        <v>274764.7365671261</v>
+        <v>274729.9986416902</v>
       </c>
       <c r="J6" t="n">
-        <v>261556.2320613894</v>
+        <v>261521.4941359538</v>
       </c>
       <c r="K6" t="n">
-        <v>273911.9261354076</v>
+        <v>273877.1882099719</v>
       </c>
       <c r="L6" t="n">
-        <v>230677.6291540774</v>
+        <v>230642.8912286418</v>
       </c>
       <c r="M6" t="n">
-        <v>90047.30064821795</v>
+        <v>90012.56272278214</v>
       </c>
       <c r="N6" t="n">
-        <v>224925.1624351026</v>
+        <v>224890.4245096669</v>
       </c>
       <c r="O6" t="n">
-        <v>274764.7365671262</v>
+        <v>274729.9986416903</v>
       </c>
       <c r="P6" t="n">
-        <v>274764.7365671261</v>
+        <v>274729.9986416905</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>524.6787101563378</v>
+        <v>524.678710156337</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26793,10 +26793,10 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>227.9910045283415</v>
+        <v>227.9910045283412</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490095</v>
+        <v>969.2208239490093</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-6.632408907794991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,16 +26963,16 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>489.6574494372125</v>
+        <v>489.6574494372117</v>
       </c>
       <c r="E3" t="n">
-        <v>677.5625270586128</v>
+        <v>677.5625270586136</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>174.1946865477188</v>
+        <v>174.1946865477186</v>
       </c>
       <c r="E4" t="n">
         <v>741.229819420668</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507655</v>
+        <v>50.48273419507632</v>
       </c>
       <c r="K4" t="n">
         <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
-        <v>174.1946865477188</v>
+        <v>174.1946865477186</v>
       </c>
       <c r="M4" t="n">
         <v>741.229819420668</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>174.1946865477188</v>
+        <v>174.1946865477186</v>
       </c>
       <c r="M4" t="n">
         <v>741.229819420668</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.251107468404</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>335.755204460977</v>
       </c>
     </row>
     <row r="3">
@@ -27461,13 +27461,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>96.96233136956221</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>94.58647819830733</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -27509,16 +27509,16 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>149.4824728139983</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>188.3353948704019</v>
+        <v>188.3353948704018</v>
       </c>
       <c r="W3" t="n">
-        <v>201.2122489658431</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>155.2902510084009</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>116.7640869035513</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27561,7 +27561,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>124.9446868416198</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>219.3814066792774</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>235.8340315500025</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
         <v>201.6549091287515</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>184.2880541909315</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>328.1340520916391</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>374.6541973916985</v>
+        <v>359.492248864379</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>361.3656305466968</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>151.2518041370232</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>197.5380718081886</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27698,13 +27698,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>93.64874758401612</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>91.27289441276125</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27713,7 +27713,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>33.00675924206475</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3891883261451</v>
+        <v>151.9766672228548</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>158.2988988999719</v>
       </c>
     </row>
     <row r="7">
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>28.26752554218587</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>120.6574806831568</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
@@ -27831,10 +27831,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>199.5313359829074</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>232.7266803559684</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>338.6071725648544</v>
+        <v>137.2818872426664</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>334.5237807071761</v>
       </c>
       <c r="F8" t="n">
-        <v>178.88504121337</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>185.2024718404367</v>
       </c>
       <c r="H8" t="n">
         <v>317.8733314006371</v>
       </c>
       <c r="I8" t="n">
-        <v>129.1585992254724</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>17.37324245629316</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>160.9552812136321</v>
       </c>
       <c r="T8" t="n">
         <v>213.862558895953</v>
       </c>
       <c r="U8" t="n">
-        <v>23.18590748778645</v>
+        <v>251.1769120161279</v>
       </c>
       <c r="V8" t="n">
-        <v>99.76125394179343</v>
+        <v>99.76125394179371</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>101.460886499653</v>
       </c>
       <c r="G9" t="n">
         <v>136.2149629564593</v>
       </c>
       <c r="H9" t="n">
-        <v>101.3359865028714</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>50.54070950493162</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.08847735100991</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>150.7207716933464</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.6158632737492</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8671350936885</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>74.09566320570994</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>33.37980529025087</v>
       </c>
       <c r="G10" t="n">
         <v>167.0448374221113</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>134.7514094028541</v>
       </c>
       <c r="S10" t="n">
         <v>207.5279244735346</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>58.53199380824952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>104.2672085519445</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
     </row>
     <row r="42">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.109261146357135</v>
+        <v>2.109261146357132</v>
       </c>
       <c r="H8" t="n">
-        <v>21.60147071513002</v>
+        <v>21.60147071512998</v>
       </c>
       <c r="I8" t="n">
-        <v>81.31729034493354</v>
+        <v>81.31729034493343</v>
       </c>
       <c r="J8" t="n">
-        <v>179.0209032206291</v>
+        <v>179.0209032206288</v>
       </c>
       <c r="K8" t="n">
-        <v>268.3059275459267</v>
+        <v>268.3059275459263</v>
       </c>
       <c r="L8" t="n">
-        <v>332.857228353754</v>
+        <v>332.8572283537534</v>
       </c>
       <c r="M8" t="n">
-        <v>370.3678012652827</v>
+        <v>370.3678012652821</v>
       </c>
       <c r="N8" t="n">
-        <v>376.3607394973699</v>
+        <v>376.3607394973693</v>
       </c>
       <c r="O8" t="n">
-        <v>355.3867739732811</v>
+        <v>355.3867739732805</v>
       </c>
       <c r="P8" t="n">
-        <v>303.3143894225893</v>
+        <v>303.3143894225888</v>
       </c>
       <c r="Q8" t="n">
-        <v>227.7764746186743</v>
+        <v>227.7764746186739</v>
       </c>
       <c r="R8" t="n">
-        <v>132.4958754848565</v>
+        <v>132.4958754848563</v>
       </c>
       <c r="S8" t="n">
-        <v>48.06478837261327</v>
+        <v>48.0647883726132</v>
       </c>
       <c r="T8" t="n">
-        <v>9.233290668178364</v>
+        <v>9.233290668178352</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1687408917085708</v>
+        <v>0.1687408917085705</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.128554206751368</v>
+        <v>1.128554206751367</v>
       </c>
       <c r="H9" t="n">
-        <v>10.89945773362506</v>
+        <v>10.89945773362504</v>
       </c>
       <c r="I9" t="n">
-        <v>38.85592334648351</v>
+        <v>38.85592334648346</v>
       </c>
       <c r="J9" t="n">
-        <v>106.6236235422422</v>
+        <v>106.6236235422421</v>
       </c>
       <c r="K9" t="n">
-        <v>182.2367553945839</v>
+        <v>182.2367553945836</v>
       </c>
       <c r="L9" t="n">
-        <v>245.0398070404671</v>
+        <v>245.0398070404667</v>
       </c>
       <c r="M9" t="n">
-        <v>285.9498970352041</v>
+        <v>285.9498970352037</v>
       </c>
       <c r="N9" t="n">
-        <v>293.5181399392517</v>
+        <v>293.5181399392512</v>
       </c>
       <c r="O9" t="n">
-        <v>268.5117546212345</v>
+        <v>268.5117546212341</v>
       </c>
       <c r="P9" t="n">
-        <v>215.5043554979872</v>
+        <v>215.5043554979868</v>
       </c>
       <c r="Q9" t="n">
-        <v>144.0589545319817</v>
+        <v>144.0589545319815</v>
       </c>
       <c r="R9" t="n">
-        <v>70.06935680163322</v>
+        <v>70.06935680163312</v>
       </c>
       <c r="S9" t="n">
-        <v>20.96239941049141</v>
+        <v>20.96239941049138</v>
       </c>
       <c r="T9" t="n">
-        <v>4.548865421072399</v>
+        <v>4.548865421072392</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07424698728627425</v>
+        <v>0.07424698728627414</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9461419363474943</v>
+        <v>0.9461419363474929</v>
       </c>
       <c r="H10" t="n">
-        <v>8.412061943162275</v>
+        <v>8.412061943162261</v>
       </c>
       <c r="I10" t="n">
-        <v>28.45306841306829</v>
+        <v>28.45306841306825</v>
       </c>
       <c r="J10" t="n">
-        <v>66.89223489976784</v>
+        <v>66.89223489976774</v>
       </c>
       <c r="K10" t="n">
-        <v>109.924490422918</v>
+        <v>109.9244904229178</v>
       </c>
       <c r="L10" t="n">
-        <v>140.6655020638811</v>
+        <v>140.6655020638809</v>
       </c>
       <c r="M10" t="n">
-        <v>148.3120491676349</v>
+        <v>148.3120491676347</v>
       </c>
       <c r="N10" t="n">
-        <v>144.785520132158</v>
+        <v>144.7855201321578</v>
       </c>
       <c r="O10" t="n">
-        <v>133.7328620575532</v>
+        <v>133.7328620575529</v>
       </c>
       <c r="P10" t="n">
-        <v>114.4315665560642</v>
+        <v>114.431566556064</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.22648523360701</v>
+        <v>79.22648523360689</v>
       </c>
       <c r="R10" t="n">
-        <v>42.54198197431551</v>
+        <v>42.54198197431545</v>
       </c>
       <c r="S10" t="n">
-        <v>16.48867356343769</v>
+        <v>16.48867356343766</v>
       </c>
       <c r="T10" t="n">
-        <v>4.04260645530293</v>
+        <v>4.042606455302924</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05160774198259066</v>
+        <v>0.05160774198259058</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,19 +31844,19 @@
         <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>171.3336650206098</v>
       </c>
       <c r="M12" t="n">
         <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>642.2453865038999</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
         <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
         <v>330.094612904754</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,22 +32318,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,7 +33272,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>616.9033572954396</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197787</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>689.3300812557329</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>362.5355639238086</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,13 +34220,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34702,19 +34702,19 @@
         <v>50.48273419507654</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="O2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="O2" t="n">
-        <v>48.44302776295223</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="P3" t="n">
-        <v>48.44302776295223</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>53.79631798062264</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>46.40980178192011</v>
+      </c>
+      <c r="O5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="M5" t="n">
-        <v>51.62272937534495</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>53.79631798062264</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.62272937534495</v>
       </c>
       <c r="O6" t="n">
-        <v>51.62272937534495</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>55.32039490809973</v>
+        <v>98.62262045011209</v>
       </c>
       <c r="K8" t="n">
-        <v>48.21607650094614</v>
+        <v>48.21607650094575</v>
       </c>
       <c r="L8" t="n">
-        <v>97.09081338376672</v>
+        <v>97.0908133837662</v>
       </c>
       <c r="M8" t="n">
-        <v>140.0215680380099</v>
+        <v>227.9910045283412</v>
       </c>
       <c r="N8" t="n">
-        <v>146.947675900779</v>
+        <v>227.9910045283412</v>
       </c>
       <c r="O8" t="n">
-        <v>125.2885625515944</v>
+        <v>125.2885625515938</v>
       </c>
       <c r="P8" t="n">
-        <v>72.08139366731973</v>
+        <v>72.08139366731928</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.7857754041295</v>
+        <v>5.470784744224432</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>105.8770322159844</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.3953164202249</v>
+        <v>227.9910045283412</v>
       </c>
       <c r="L9" t="n">
-        <v>106.4854272605929</v>
+        <v>106.4854272605925</v>
       </c>
       <c r="M9" t="n">
-        <v>143.8158631131857</v>
+        <v>143.8158631131853</v>
       </c>
       <c r="N9" t="n">
-        <v>162.1764278559184</v>
+        <v>162.1764278559179</v>
       </c>
       <c r="O9" t="n">
-        <v>125.9155101767901</v>
+        <v>125.9155101767897</v>
       </c>
       <c r="P9" t="n">
-        <v>210.0095028659887</v>
+        <v>132.2908469738573</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.077180445960153</v>
+        <v>4.077180445959954</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>87.6549985970351</v>
+        <v>87.65499859703493</v>
       </c>
       <c r="L10" t="n">
-        <v>168.2555273241973</v>
+        <v>168.2555273241971</v>
       </c>
       <c r="M10" t="n">
-        <v>187.8959261294755</v>
+        <v>187.8959261294753</v>
       </c>
       <c r="N10" t="n">
-        <v>188.9176925113866</v>
+        <v>188.9176925113864</v>
       </c>
       <c r="O10" t="n">
-        <v>158.3179899715929</v>
+        <v>158.3179899715926</v>
       </c>
       <c r="P10" t="n">
-        <v>111.7101258209577</v>
+        <v>111.7101258209575</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>32.77928524073559</v>
       </c>
       <c r="M12" t="n">
         <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>510.9036744205666</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
         <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
         <v>190.1128388187325</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060459</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295337</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,7 +36920,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>485.5616452121063</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37066,10 +37066,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753343</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>557.9883691723996</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,13 +37868,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
